--- a/biology/Médecine/Gian_Francesco_Buonamico/Gian_Francesco_Buonamico.xlsx
+++ b/biology/Médecine/Gian_Francesco_Buonamico/Gian_Francesco_Buonamico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gian Francesco Buonamico, ou en français Jean-François Bonamico, né à Malte en 1639 et mort en 1680, est un historien, naturaliste et littérateur[Quoi ?].
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un médecin natif de Joué-sur-Erdre, François Bonamy, dont la famille, en se déplaçant à Malte, avait italianisé son nom. L'aïeul de ce dernier avait fait la même chose dans le sens inverse : né à Florence sous le nom de Francesco Buonamici, il est devenu François Bonamy après son émigration, vers 1525, à Nantes. 
 Il est médecin de l'ordre de Saint-Jean de Jérusalem.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Memoria de' viaggi nella Francia, Germania, Olanda, Fiandra, Lorena, Suizzera, Italia, Sicilia, Spiaggia, e varie isole della Grecia dall'anno 1657 fin al 1666. Mémoire des voyages en France, Allemagne, Hollande, Flandre, Lorraine, Suisse, Italie, Sicile, Espagne et diverses îles de la Grèce de 1657 à la fin de 1666. Manuscrit de la Bibliothèque nationale de Malte.
 Trattato circa l’origine delle Glossopetre, Conchiglie ed altre Pietre figurate, che si cavano nelle rocche dell’Isola di Malta. Ce manuscrit a été publié en 1770 dans l'Opuscoli di Autori Siciliani, tome XI, Palerme, pp.125-200, comme Lettera Missiva del Sig. Francesco Buonamico, Maltese, dottore di Medicina, filosofo, poeta, diretta ad Agostino Scilla ecc. Data sotto il di 28 d’Agosto, 1668.</t>
@@ -575,7 +591,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(mt) Anthony Cremona, Antoloġija ta' Proża Maltija, Malta, Malta University Press, 1970
 Giovanni Mangion, «Giovan Francesco Buonamico scienziato e letterato maltese del Seicento», in Studi secenteschi, 1971, II, pp. 285–321
